--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacCaseAppl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacCaseAppl.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED80DBB-6273-4BFA-A338-FC4B3A774250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85207476-4FD6-4896-A8BA-A9F140BE82B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
   <si>
     <t>備註說明</t>
   </si>
@@ -477,12 +478,56 @@
 0:非企金單位  
 1:企金推展課</t>
   </si>
+  <si>
+    <t>IsSuspected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為金控「疑似準利害關係人」名單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSuspectedCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為金控疑似利害關係人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSuspectedCheckType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為金控疑似利害關係人_確認狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N
+2022/3/24新增欄位 by eric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decimald</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/3/24新增欄位by eric</t>
+  </si>
+  <si>
+    <t>是否資訊日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -547,22 +592,8 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +603,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,9 +724,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -711,15 +745,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -750,9 +778,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -774,17 +799,38 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,723 +1170,810 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21" style="22" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="26" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="30.77734375" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="7"/>
+    <col min="1" max="1" width="4.88671875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="18" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="16">
         <v>1</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <v>7</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
-        <f t="shared" ref="A11:A38" si="0">A10+1</f>
+      <c r="A11" s="16">
+        <f t="shared" ref="A11:A42" si="0">A10+1</f>
         <v>2</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="16">
         <v>32</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="16">
         <v>8</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="16">
         <f>A12+1</f>
         <v>4</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="16">
         <v>7</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="16">
         <v>6</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <v>3</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="16">
         <v>16</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="16">
         <v>2</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="16">
         <v>5</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="A18" s="16">
         <f>A17+1</f>
         <v>9</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="16">
         <v>6</v>
       </c>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="16">
         <v>1</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="37" t="s">
+      <c r="F19" s="40"/>
+      <c r="G19" s="30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="273" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+      <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="16">
         <v>1</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="16">
         <v>6</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+      <c r="A22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="16">
         <v>6</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="A23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="16">
         <v>6</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+      <c r="A24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="16">
         <v>6</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="A25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="16">
         <v>6</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+      <c r="A26" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="16">
         <v>6</v>
       </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+      <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="16">
         <v>6</v>
       </c>
-      <c r="G27" s="21"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+      <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="16">
         <v>1</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+      <c r="A29" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="16">
         <v>8</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
+      <c r="A30" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="16">
         <v>32</v>
       </c>
-      <c r="G30" s="21"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+      <c r="A31" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="16">
         <v>4</v>
       </c>
-      <c r="G31" s="21"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
+      <c r="A32" s="16">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="34">
         <v>1</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25" t="s">
+      <c r="F32" s="34"/>
+      <c r="G32" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
+      <c r="A33" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="34">
         <v>1</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25" t="s">
+      <c r="F33" s="34"/>
+      <c r="G33" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="19">
+      <c r="A34" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="34">
         <v>1</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25" t="s">
+      <c r="F34" s="34"/>
+      <c r="G34" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
+    <row r="35" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="35">
+        <v>1</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="35">
+        <v>1</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="G37" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="35">
+        <v>8</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C39" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D39" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E39" s="16">
         <v>8</v>
       </c>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B36" s="23" t="s">
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C40" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D40" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E40" s="16">
         <v>6</v>
       </c>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B37" s="23" t="s">
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C41" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D41" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E41" s="16">
         <v>8</v>
       </c>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B38" s="27" t="s">
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B42" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C42" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D42" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E42" s="16">
         <v>6</v>
       </c>
-      <c r="G38" s="21"/>
+      <c r="G42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacCaseAppl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacCaseAppl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85207476-4FD6-4896-A8BA-A9F140BE82B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66680DA2-E090-4470-A80E-3AA651A0475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacCaseAppl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacCaseAppl.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66680DA2-E090-4470-A80E-3AA651A0475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12ACE77-8D3C-42E9-9F8B-680431674C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
   <si>
     <t>備註說明</t>
   </si>
@@ -522,12 +512,24 @@
     <t>是否資訊日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>核准層級</t>
+  </si>
+  <si>
+    <t>ApprovedLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.ApprovedLevel
+2023/6/1會議新增核准層級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -592,8 +594,44 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,6 +647,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,10 +747,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -724,7 +775,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -736,27 +787,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,6 +826,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -799,42 +877,18 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{5F0F56DB-D31B-416E-A423-F1C5544B1ADB}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{44636B48-7FE6-4EA2-8DAB-F95D74E4ABBC}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{390CD5C3-DF83-4337-95A0-0971B8A2DBC7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -850,9 +904,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -890,9 +944,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -925,26 +979,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -977,26 +1014,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1170,41 +1190,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="18" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="30.77734375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="16" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="7" t="s">
         <v>85</v>
       </c>
@@ -1216,91 +1236,91 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="12"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="12"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="11"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="11"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="12"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="11"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1312,668 +1332,690 @@
       <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>7</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <f t="shared" ref="A11:A42" si="0">A10+1</f>
+      <c r="A11" s="14">
+        <f t="shared" ref="A11:A43" si="0">A10+1</f>
         <v>2</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>32</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>8</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <f>A12+1</f>
         <v>4</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>7</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>6</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>3</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <v>16</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="14">
         <v>2</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>5</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <f>A17+1</f>
         <v>9</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>6</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="14">
         <v>1</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="30" t="s">
+      <c r="F19" s="32"/>
+      <c r="G19" s="22" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="273" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
+      <c r="A20" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <v>1</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="A21" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <v>6</v>
       </c>
-      <c r="G21" s="18"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
+      <c r="A22" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="14">
         <v>6</v>
       </c>
-      <c r="G22" s="18"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="14">
         <v>6</v>
       </c>
-      <c r="G23" s="18"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="14">
         <v>6</v>
       </c>
-      <c r="G24" s="18"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+      <c r="A25" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>6</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <v>6</v>
       </c>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="40">
+        <v>1</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E28" s="14">
         <v>6</v>
       </c>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B28" s="19" t="s">
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C29" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E29" s="14">
         <v>1</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G29" s="19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B29" s="19" t="s">
+    <row r="30" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D30" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E30" s="14">
         <v>8</v>
       </c>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B30" s="19" t="s">
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C31" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E31" s="14">
         <v>32</v>
       </c>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B31" s="19" t="s">
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D32" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E32" s="14">
         <v>4</v>
       </c>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B32" s="22" t="s">
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C33" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D33" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E33" s="26">
         <v>1</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="22" t="s">
+      <c r="F33" s="26"/>
+      <c r="G33" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B33" s="22" t="s">
+    <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B34" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C34" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D34" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E34" s="26">
         <v>1</v>
       </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="22" t="s">
+      <c r="F34" s="26"/>
+      <c r="G34" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B34" s="22" t="s">
+    <row r="35" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C35" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D35" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E35" s="26">
         <v>1</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="22" t="s">
+      <c r="F35" s="26"/>
+      <c r="G35" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B35" s="31" t="s">
+    <row r="36" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C36" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D36" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E36" s="27">
         <v>1</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="32" t="s">
+      <c r="F36" s="25"/>
+      <c r="G36" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B36" s="31" t="s">
+    <row r="37" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C37" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D37" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E37" s="27">
         <v>1</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="32" t="s">
+      <c r="F37" s="25"/>
+      <c r="G37" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B37" s="31" t="s">
+    <row r="38" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C38" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D38" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E38" s="27">
         <v>1</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="32" t="s">
+      <c r="F38" s="25"/>
+      <c r="G38" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="16">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B38" s="31" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B39" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C39" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D39" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E39" s="27">
         <v>8</v>
       </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="32" t="s">
+      <c r="F39" s="25"/>
+      <c r="G39" s="24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B39" s="20" t="s">
+    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C40" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D40" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E40" s="14">
         <v>8</v>
       </c>
-      <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B40" s="20" t="s">
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D41" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E41" s="14">
         <v>6</v>
       </c>
-      <c r="G40" s="18"/>
-    </row>
-    <row r="41" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B41" s="20" t="s">
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C42" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D42" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E42" s="14">
         <v>8</v>
       </c>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B42" s="23" t="s">
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C43" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D43" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E43" s="14">
         <v>6</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacCaseAppl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacCaseAppl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12ACE77-8D3C-42E9-9F8B-680431674C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76642267-3F1C-4C9D-A1E0-0397A74872E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="128">
   <si>
     <t>備註說明</t>
   </si>
@@ -207,14 +207,6 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -523,6 +515,9 @@
     <t>CdCode.ApprovedLevel
 2023/6/1會議新增核准層級</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -859,6 +854,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -876,12 +877,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1192,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1208,12 +1203,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>35</v>
@@ -1223,10 +1218,10 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>32</v>
@@ -1236,10 +1231,10 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="11" t="s">
         <v>48</v>
       </c>
@@ -1251,27 +1246,27 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>47</v>
@@ -1281,10 +1276,10 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="11"/>
       <c r="D6" s="4"/>
       <c r="E6" s="28"/>
@@ -1292,10 +1287,10 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="11"/>
       <c r="D7" s="4"/>
       <c r="E7" s="28"/>
@@ -1303,10 +1298,10 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="11"/>
       <c r="D8" s="4"/>
       <c r="E8" s="30"/>
@@ -1360,13 +1355,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="14">
         <v>32</v>
@@ -1379,13 +1374,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="14">
         <v>8</v>
@@ -1398,10 +1393,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>52</v>
@@ -1410,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1419,10 +1414,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>52</v>
@@ -1438,13 +1433,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" s="14">
         <v>3</v>
@@ -1485,7 +1480,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="14">
         <v>5</v>
@@ -1504,7 +1499,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" s="14">
         <v>6</v>
@@ -1517,20 +1512,20 @@
         <v>10</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="273" customHeight="1" x14ac:dyDescent="0.3">
@@ -1545,13 +1540,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1566,7 +1561,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E21" s="14">
         <v>6</v>
@@ -1585,7 +1580,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22" s="14">
         <v>6</v>
@@ -1604,7 +1599,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" s="14">
         <v>6</v>
@@ -1617,13 +1612,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" s="14">
         <v>6</v>
@@ -1636,13 +1631,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="14">
         <v>6</v>
@@ -1655,13 +1650,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E26" s="14">
         <v>6</v>
@@ -1673,21 +1668,21 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="39" t="s">
+      <c r="B27" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="34">
+        <v>1</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="40">
-        <v>1</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="39" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1702,7 +1697,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" s="14">
         <v>6</v>
@@ -1715,19 +1710,19 @@
         <v>20</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E29" s="14">
         <v>1</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1736,13 +1731,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E30" s="14">
         <v>8</v>
@@ -1755,13 +1750,13 @@
         <v>22</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E31" s="14">
         <v>32</v>
@@ -1774,13 +1769,13 @@
         <v>23</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E32" s="14">
         <v>4</v>
@@ -1793,20 +1788,20 @@
         <v>24</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E33" s="26">
         <v>1</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1815,20 +1810,20 @@
         <v>25</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E34" s="26">
         <v>1</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1837,20 +1832,20 @@
         <v>26</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E35" s="26">
         <v>1</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1859,20 +1854,20 @@
         <v>27</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E36" s="27">
         <v>1</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1881,20 +1876,20 @@
         <v>28</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E37" s="27">
         <v>1</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1903,20 +1898,20 @@
         <v>29</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E38" s="27">
         <v>1</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1925,20 +1920,20 @@
         <v>30</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E39" s="27">
         <v>8</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1947,13 +1942,13 @@
         <v>31</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="E40" s="14">
         <v>8</v>
@@ -1972,7 +1967,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41" s="14">
         <v>6</v>
@@ -1991,7 +1986,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="E42" s="14">
         <v>8</v>
@@ -2010,7 +2005,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E43" s="14">
         <v>6</v>
@@ -2064,68 +2059,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
